--- a/python/xlsx/Amanzi Requirements.xlsx
+++ b/python/xlsx/Amanzi Requirements.xlsx
@@ -1,25 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Tlaltecuhtli/repos/GitHub/topa-development/python/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B336ABAF-34FA-3A48-8F26-6446033360BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-37420" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="provenance" sheetId="1" r:id="rId1"/>
+    <sheet name="8 - Initial conditions" sheetId="1" r:id="rId1"/>
+    <sheet name="9 - Boundary conditions" sheetId="2" r:id="rId2"/>
+    <sheet name="provenance" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+  <si>
+    <t>8 - Initial conditions</t>
+  </si>
+  <si>
+    <t>1. assigned_regions</t>
+  </si>
+  <si>
+    <t>no requirements</t>
+  </si>
+  <si>
+    <t>2. liquid_phase</t>
+  </si>
+  <si>
+    <t>08-IC.S-02.req-01</t>
+  </si>
+  <si>
+    <t>liquid_component</t>
+  </si>
+  <si>
+    <t>08-IC.S-02.opt-01</t>
+  </si>
+  <si>
+    <t>geochemistry_component</t>
+  </si>
+  <si>
+    <t>3. solid_phase</t>
+  </si>
+  <si>
+    <t>08-IC.S-03.req-01</t>
+  </si>
+  <si>
+    <t>geochemisty</t>
+  </si>
+  <si>
+    <t>08-IC.S-03.opt-01</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>08-IC.S-03.opt-02</t>
+  </si>
+  <si>
+    <t>geochemistry</t>
+  </si>
+  <si>
+    <t>9 - Boundary conditions</t>
+  </si>
   <si>
     <t>python source</t>
   </si>
   <si>
-    <t>beta.py</t>
+    <t>charlie.py</t>
   </si>
   <si>
     <t>directory</t>
@@ -62,8 +118,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +130,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,14 +177,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -146,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,9 +276,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,6 +328,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,75 +521,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>43425.58403579784</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5">
+        <v>43425.67976465149</v>
       </c>
     </row>
   </sheetData>
